--- a/src/test/resources/testData/login_testData.xlsx
+++ b/src/test/resources/testData/login_testData.xlsx
@@ -3,18 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\OpenCart_TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10710" windowHeight="5175" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
+    <sheet name="editAccounts" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:J15"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>USERNAME</t>
   </si>
@@ -36,6 +33,24 @@
   </si>
   <si>
     <t>deshan@123</t>
+  </si>
+  <si>
+    <t>FIRSTNAME</t>
+  </si>
+  <si>
+    <t>LASTNAME</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>PHONENO</t>
+  </si>
+  <si>
+    <t>Deshan</t>
+  </si>
+  <si>
+    <t>Raj</t>
   </si>
 </sst>
 </file>
@@ -101,10 +116,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -388,7 +405,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -421,4 +438,56 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>8838791920</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>